--- a/biology/Botanique/Lepra_amara/Lepra_amara.xlsx
+++ b/biology/Botanique/Lepra_amara/Lepra_amara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepra amara est une espèce de lichens crustacés de la famille des Pertusariaceae. Il doit son nom d'espèce à la forte amertume de ses sorédies.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Lepra amara (Ach.) Hafellner, 2016[1].
-L'espèce a été initialement classée dans le genre Variolaria sous le basionyme Variolaria amara Ach., 1809[1].
-Lepra amara a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lepra amara (Ach.) Hafellner, 2016.
+L'espèce a été initialement classée dans le genre Variolaria sous le basionyme Variolaria amara Ach., 1809.
+Lepra amara a pour synonymes :
 Marfloraea amara (Ach.) S.Y. Kondr., L. Lőkös &amp; Hur, 2015
 Pertusaria amara (Ach.) Nyl., 1872
 Variolaria amara Ach., 1809</t>
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Josef Hafellner et Roman Türk, « Die lichenisierten Pilze Österreichs - eine neue Checkliste der bisher nachgewiesenen Taxa mit Angaben zu Verbreitung und Substratökologie », Stapfia, vol. 104, no 1,‎ 2016, p. 1-216 (ISSN 0252-192X, lire en ligne)</t>
         </is>
